--- a/library/Library_J.PLAGGENBERG_03.05.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_03.05.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CE4D09-B96A-A74E-99EA-CC6CE2ABC781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D70C3-3880-F943-AC81-F0153FE00ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="18520" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
+    <workbookView xWindow="18160" yWindow="460" windowWidth="20240" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>03.03.20</t>
   </si>
   <si>
-    <t>J.Plaggenberg</t>
-  </si>
-  <si>
     <t>03.05.20</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>26b</t>
+  </si>
+  <si>
+    <t>J.PLAGGENBERG</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,16 +686,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -738,16 +738,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -776,16 +776,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -814,16 +814,16 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -835,10 +835,10 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>26</v>
@@ -852,16 +852,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -873,10 +873,10 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>26</v>
@@ -890,16 +890,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -911,10 +911,10 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -928,16 +928,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
@@ -949,10 +949,10 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -966,16 +966,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -987,10 +987,10 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -1004,16 +1004,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1025,10 +1025,10 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -1042,16 +1042,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
@@ -1063,10 +1063,10 @@
         <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>26</v>
@@ -1080,16 +1080,16 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1101,10 +1101,10 @@
         <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>26</v>
@@ -1118,16 +1118,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1139,10 +1139,10 @@
         <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>26</v>
@@ -1156,16 +1156,16 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3">
         <v>13</v>
@@ -1177,10 +1177,10 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>26</v>
@@ -1194,16 +1194,16 @@
         <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1215,10 +1215,10 @@
         <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>26</v>
@@ -1232,16 +1232,16 @@
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1253,10 +1253,10 @@
         <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>26</v>
@@ -1270,16 +1270,16 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3">
         <v>16</v>
@@ -1291,10 +1291,10 @@
         <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>26</v>
@@ -1308,16 +1308,16 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1329,10 +1329,10 @@
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>26</v>
@@ -1346,16 +1346,16 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1367,10 +1367,10 @@
         <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>26</v>
@@ -1384,16 +1384,16 @@
         <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3">
         <v>19</v>
@@ -1405,10 +1405,10 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>26</v>
@@ -1422,16 +1422,16 @@
         <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1443,10 +1443,10 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>26</v>
@@ -1460,16 +1460,16 @@
         <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1481,10 +1481,10 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>26</v>
@@ -1498,16 +1498,16 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3">
         <v>22</v>
@@ -1519,10 +1519,10 @@
         <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>26</v>
@@ -1536,16 +1536,16 @@
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1557,10 +1557,10 @@
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -1574,16 +1574,16 @@
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1595,10 +1595,10 @@
         <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>26</v>
@@ -1612,16 +1612,16 @@
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3">
         <v>25</v>
@@ -1633,10 +1633,10 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>26</v>
@@ -1650,19 +1650,19 @@
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -1671,10 +1671,10 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>26</v>
@@ -1688,19 +1688,19 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -1709,10 +1709,10 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>26</v>
@@ -1726,16 +1726,16 @@
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -1744,13 +1744,13 @@
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>26</v>
@@ -1764,16 +1764,16 @@
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3">
         <v>28</v>
@@ -1785,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>26</v>
@@ -1802,16 +1802,16 @@
         <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -1823,10 +1823,10 @@
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>26</v>
@@ -1840,16 +1840,16 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -1861,10 +1861,10 @@
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>26</v>
@@ -1878,16 +1878,16 @@
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
@@ -1899,10 +1899,10 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>26</v>
@@ -1916,16 +1916,16 @@
         <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -1937,10 +1937,10 @@
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>26</v>
@@ -1954,16 +1954,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -1975,10 +1975,10 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>26</v>
@@ -1992,16 +1992,16 @@
         <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3">
         <v>34</v>
@@ -2013,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>26</v>
@@ -2030,16 +2030,16 @@
         <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>35</v>
@@ -2051,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>26</v>
@@ -2068,16 +2068,16 @@
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2089,10 +2089,10 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>26</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F39" s="3">
         <v>37</v>
@@ -2127,10 +2127,10 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>26</v>
@@ -2144,16 +2144,16 @@
         <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -2165,10 +2165,10 @@
         <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>26</v>
@@ -2182,16 +2182,16 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>39</v>
@@ -2203,10 +2203,10 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>26</v>
@@ -2220,16 +2220,16 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
@@ -2241,10 +2241,10 @@
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>26</v>

--- a/library/Library_J.PLAGGENBERG_03.05.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_03.05.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D70C3-3880-F943-AC81-F0153FE00ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2ECB22-4623-694C-AB32-992E5875BF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="460" windowWidth="20240" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
+    <workbookView xWindow="3060" yWindow="460" windowWidth="12560" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>GTACGGC</t>
   </si>
   <si>
-    <t>E7420</t>
-  </si>
-  <si>
     <t>TGAGGTT</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t>E7420L</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,19 +683,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="b">
         <v>0</v>
@@ -735,19 +735,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="b">
         <v>0</v>
@@ -773,19 +773,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -794,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -811,19 +811,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -832,16 +832,16 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -849,19 +849,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -870,16 +870,16 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>0</v>
@@ -887,19 +887,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -908,16 +908,16 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>0</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
@@ -946,16 +946,16 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -963,19 +963,19 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -984,16 +984,16 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -1001,19 +1001,19 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1022,16 +1022,16 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
@@ -1060,16 +1060,16 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -1077,19 +1077,19 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1098,16 +1098,16 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -1115,19 +1115,19 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1136,16 +1136,16 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
@@ -1153,19 +1153,19 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3">
         <v>13</v>
@@ -1174,16 +1174,16 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
@@ -1191,19 +1191,19 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1212,16 +1212,16 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
@@ -1229,19 +1229,19 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1250,16 +1250,16 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3">
         <v>16</v>
@@ -1288,16 +1288,16 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1" t="b">
         <v>0</v>
@@ -1305,19 +1305,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1326,16 +1326,16 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L18" s="1" t="b">
         <v>0</v>
@@ -1343,19 +1343,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1364,16 +1364,16 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1" t="b">
         <v>0</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
         <v>19</v>
@@ -1402,16 +1402,16 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L20" s="1" t="b">
         <v>0</v>
@@ -1419,19 +1419,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1440,16 +1440,16 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L21" s="1" t="b">
         <v>0</v>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1478,16 +1478,16 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
@@ -1495,19 +1495,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
         <v>22</v>
@@ -1516,16 +1516,16 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1" t="b">
         <v>0</v>
@@ -1533,19 +1533,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1554,16 +1554,16 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
@@ -1571,19 +1571,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1592,16 +1592,16 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
@@ -1609,19 +1609,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3">
         <v>25</v>
@@ -1630,16 +1630,16 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
@@ -1647,37 +1647,37 @@
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1" t="b">
         <v>0</v>
@@ -1685,22 +1685,22 @@
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -1709,13 +1709,13 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1" t="b">
         <v>0</v>
@@ -1723,19 +1723,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -1744,16 +1744,16 @@
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L29" s="1" t="b">
         <v>0</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3">
         <v>28</v>
@@ -1785,13 +1785,13 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1" t="b">
         <v>0</v>
@@ -1799,19 +1799,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -1823,13 +1823,13 @@
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L31" s="1" t="b">
         <v>0</v>
@@ -1837,19 +1837,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -1861,13 +1861,13 @@
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1" t="b">
         <v>0</v>
@@ -1875,19 +1875,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
@@ -1899,13 +1899,13 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1" t="b">
         <v>0</v>
@@ -1913,19 +1913,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -1937,13 +1937,13 @@
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L34" s="1" t="b">
         <v>0</v>
@@ -1951,19 +1951,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -1975,13 +1975,13 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L35" s="1" t="b">
         <v>0</v>
@@ -1989,19 +1989,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3">
         <v>34</v>
@@ -2013,13 +2013,13 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L36" s="1" t="b">
         <v>0</v>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <v>35</v>
@@ -2051,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L37" s="1" t="b">
         <v>0</v>
@@ -2065,19 +2065,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2089,13 +2089,13 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L38" s="1" t="b">
         <v>0</v>
@@ -2103,19 +2103,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="3">
         <v>37</v>
@@ -2127,13 +2127,13 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>0</v>
@@ -2141,19 +2141,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -2165,13 +2165,13 @@
         <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>0</v>
@@ -2179,19 +2179,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>39</v>
@@ -2203,13 +2203,13 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L41" s="1" t="b">
         <v>0</v>
@@ -2217,19 +2217,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
@@ -2241,13 +2241,13 @@
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L42" s="1" t="b">
         <v>0</v>
